--- a/test_data/user_management.xlsx
+++ b/test_data/user_management.xlsx
@@ -332,10 +332,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.220.1:8080/users/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改账号名称为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -376,10 +372,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.220.1:8080/users/chanageaccountAction/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"msg":"修改完成"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -396,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.220.1:8080/users/inactiveAction/ajax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>停用正常用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -432,10 +420,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.220.1:8080/users/activeAction/ajax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"msg":"停用成功！"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,10 +440,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.168.220.1:8080/customviews/editview/save</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新增视图模块为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -490,6 +470,21 @@
   <si>
     <t>删除正确视图信息</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.168.2.129:8080/users/save</t>
+  </si>
+  <si>
+    <t>http://192.168.2.129:8080/users/chanageaccountAction/save</t>
+  </si>
+  <si>
+    <t>http://192.168.2.129:8080/users/inactiveAction/ajax</t>
+  </si>
+  <si>
+    <t>http://192.168.2.129:8080/users/activeAction/ajax</t>
+  </si>
+  <si>
+    <t>http://192.168.2.129:8080/customviews/editview/save</t>
   </si>
 </sst>
 </file>
@@ -861,7 +856,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -892,7 +887,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
@@ -906,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -920,7 +915,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>20</v>
@@ -934,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -948,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>22</v>
@@ -962,7 +957,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>25</v>
@@ -976,7 +971,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>26</v>
@@ -990,7 +985,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>27</v>
@@ -1004,7 +999,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>28</v>
@@ -1018,7 +1013,7 @@
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -1032,7 +1027,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>35</v>
@@ -1046,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>36</v>
@@ -1060,7 +1055,7 @@
         <v>32</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1074,7 +1069,7 @@
         <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>38</v>
@@ -1088,7 +1083,7 @@
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>37</v>
@@ -1102,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>29</v>
@@ -1115,7 +1110,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B3:B17" r:id="rId1" display="http://192.168.220.1:8080/users/save"/>
-    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId2" display="http://192.168.220.1:8080/users/save"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
@@ -1127,7 +1122,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1154,27 +1149,27 @@
     </row>
     <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
@@ -1182,54 +1177,54 @@
     </row>
     <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
-    <hyperlink ref="B2" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId1" display="http://192.168.220.1:8080/users/chanageaccountAction/save"/>
+    <hyperlink ref="B4" r:id="rId2" display="http://192.168.220.1:8080/users/chanageaccountAction/save"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://192.168.220.1:8080/users/chanageaccountAction/save"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://192.168.220.1:8080/users/chanageaccountAction/save"/>
+    <hyperlink ref="B2" r:id="rId5" display="http://192.168.220.1:8080/users/chanageaccountAction/save"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
@@ -1241,7 +1236,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1268,81 +1263,81 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.220.1:8080/users/inactiveAction/ajax"/>
     <hyperlink ref="B3:B4" r:id="rId2" display="http://192.168.220.1:8080/users/inactiveAction/ajax"/>
-    <hyperlink ref="B5" r:id="rId3"/>
-    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId3" display="http://192.168.220.1:8080/users/activeAction/ajax"/>
+    <hyperlink ref="B6" r:id="rId4" display="http://192.168.220.1:8080/users/activeAction/ajax"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -1354,7 +1349,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1379,63 +1374,63 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.220.1:8080/customviews/editview/save"/>
+    <hyperlink ref="B3" r:id="rId2" display="http://192.168.220.1:8080/customviews/editview/save"/>
+    <hyperlink ref="B4" r:id="rId3" display="http://192.168.220.1:8080/customviews/editview/save"/>
+    <hyperlink ref="B5" r:id="rId4" display="http://192.168.220.1:8080/customviews/editview/save"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
